--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.671071</v>
+        <v>10.86201166666667</v>
       </c>
       <c r="H2">
-        <v>41.013213</v>
+        <v>32.586035</v>
       </c>
       <c r="I2">
-        <v>0.09691937964924313</v>
+        <v>0.08282714153498995</v>
       </c>
       <c r="J2">
-        <v>0.09691937964924312</v>
+        <v>0.08282714153498993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N2">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O2">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P2">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q2">
-        <v>73.52895763983767</v>
+        <v>149.7682952930917</v>
       </c>
       <c r="R2">
-        <v>661.7606187585391</v>
+        <v>1347.914657637825</v>
       </c>
       <c r="S2">
-        <v>0.05256811464169262</v>
+        <v>0.06298910763004696</v>
       </c>
       <c r="T2">
-        <v>0.05256811464169263</v>
+        <v>0.06298910763004696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.671071</v>
+        <v>10.86201166666667</v>
       </c>
       <c r="H3">
-        <v>41.013213</v>
+        <v>32.586035</v>
       </c>
       <c r="I3">
-        <v>0.09691937964924313</v>
+        <v>0.08282714153498995</v>
       </c>
       <c r="J3">
-        <v>0.09691937964924312</v>
+        <v>0.08282714153498993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.356958</v>
       </c>
       <c r="O3">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P3">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q3">
-        <v>28.968808054006</v>
+        <v>23.01645065350333</v>
       </c>
       <c r="R3">
-        <v>260.719272486054</v>
+        <v>207.14805588153</v>
       </c>
       <c r="S3">
-        <v>0.02071069238157009</v>
+        <v>0.009680190888452078</v>
       </c>
       <c r="T3">
-        <v>0.02071069238157009</v>
+        <v>0.009680190888452076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.671071</v>
+        <v>10.86201166666667</v>
       </c>
       <c r="H4">
-        <v>41.013213</v>
+        <v>32.586035</v>
       </c>
       <c r="I4">
-        <v>0.09691937964924313</v>
+        <v>0.08282714153498995</v>
       </c>
       <c r="J4">
-        <v>0.09691937964924312</v>
+        <v>0.08282714153498993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N4">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O4">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P4">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q4">
-        <v>27.79133693687067</v>
+        <v>20.91529225469166</v>
       </c>
       <c r="R4">
-        <v>250.122032431836</v>
+        <v>188.237630292225</v>
       </c>
       <c r="S4">
-        <v>0.01986888204371599</v>
+        <v>0.00879649189013257</v>
       </c>
       <c r="T4">
-        <v>0.01986888204371599</v>
+        <v>0.00879649189013257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.671071</v>
+        <v>10.86201166666667</v>
       </c>
       <c r="H5">
-        <v>41.013213</v>
+        <v>32.586035</v>
       </c>
       <c r="I5">
-        <v>0.09691937964924313</v>
+        <v>0.08282714153498995</v>
       </c>
       <c r="J5">
-        <v>0.09691937964924312</v>
+        <v>0.08282714153498993</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N5">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O5">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P5">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q5">
-        <v>5.275602500568667</v>
+        <v>3.236864993984444</v>
       </c>
       <c r="R5">
-        <v>47.480422505118</v>
+        <v>29.13178494586</v>
       </c>
       <c r="S5">
-        <v>0.003771690582264403</v>
+        <v>0.001361351126358331</v>
       </c>
       <c r="T5">
-        <v>0.003771690582264404</v>
+        <v>0.001361351126358331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.04504633333335</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H6">
         <v>276.135139</v>
       </c>
       <c r="I6">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686454</v>
       </c>
       <c r="J6">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686453</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N6">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O6">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P6">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q6">
-        <v>495.0582374124576</v>
+        <v>1269.141490781278</v>
       </c>
       <c r="R6">
-        <v>4455.524136712118</v>
+        <v>11422.27341703151</v>
       </c>
       <c r="S6">
-        <v>0.3539323691501988</v>
+        <v>0.5337717826335416</v>
       </c>
       <c r="T6">
-        <v>0.3539323691501988</v>
+        <v>0.5337717826335416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.04504633333335</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H7">
         <v>276.135139</v>
       </c>
       <c r="I7">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686454</v>
       </c>
       <c r="J7">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686453</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.356958</v>
       </c>
       <c r="O7">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P7">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q7">
         <v>195.0421645496847</v>
@@ -883,10 +883,10 @@
         <v>1755.379480947162</v>
       </c>
       <c r="S7">
-        <v>0.1394416457830578</v>
+        <v>0.08203025794728472</v>
       </c>
       <c r="T7">
-        <v>0.1394416457830578</v>
+        <v>0.08203025794728472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.04504633333335</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H8">
         <v>276.135139</v>
       </c>
       <c r="I8">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686454</v>
       </c>
       <c r="J8">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686453</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N8">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O8">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P8">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q8">
-        <v>187.1144474357232</v>
+        <v>177.2368787419183</v>
       </c>
       <c r="R8">
-        <v>1684.030026921508</v>
+        <v>1595.131908677265</v>
       </c>
       <c r="S8">
-        <v>0.1337738768458867</v>
+        <v>0.07454176339018018</v>
       </c>
       <c r="T8">
-        <v>0.1337738768458867</v>
+        <v>0.07454176339018019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.04504633333335</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H9">
         <v>276.135139</v>
       </c>
       <c r="I9">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686454</v>
       </c>
       <c r="J9">
-        <v>0.6525420569034064</v>
+        <v>0.7018799384686453</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N9">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O9">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P9">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q9">
-        <v>35.51975383648378</v>
+        <v>27.42930108060489</v>
       </c>
       <c r="R9">
-        <v>319.677784528354</v>
+        <v>246.863709725444</v>
       </c>
       <c r="S9">
-        <v>0.02539416512426305</v>
+        <v>0.01153613449763877</v>
       </c>
       <c r="T9">
-        <v>0.02539416512426306</v>
+        <v>0.01153613449763877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.762991666666666</v>
+        <v>10.015157</v>
       </c>
       <c r="H10">
-        <v>29.288975</v>
+        <v>30.045471</v>
       </c>
       <c r="I10">
-        <v>0.06921353095555305</v>
+        <v>0.0763695392520887</v>
       </c>
       <c r="J10">
-        <v>0.06921353095555305</v>
+        <v>0.07636953925208868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N10">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O10">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P10">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q10">
-        <v>52.50960957604723</v>
+        <v>138.091638732605</v>
       </c>
       <c r="R10">
-        <v>472.586486184425</v>
+        <v>1242.824748593445</v>
       </c>
       <c r="S10">
-        <v>0.03754073584865612</v>
+        <v>0.05807817387462005</v>
       </c>
       <c r="T10">
-        <v>0.03754073584865613</v>
+        <v>0.05807817387462005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.762991666666666</v>
+        <v>10.015157</v>
       </c>
       <c r="H11">
-        <v>29.288975</v>
+        <v>30.045471</v>
       </c>
       <c r="I11">
-        <v>0.06921353095555305</v>
+        <v>0.0763695392520887</v>
       </c>
       <c r="J11">
-        <v>0.06921353095555305</v>
+        <v>0.07636953925208868</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.356958</v>
       </c>
       <c r="O11">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P11">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q11">
-        <v>20.68764265978333</v>
+        <v>21.221977470802</v>
       </c>
       <c r="R11">
-        <v>186.18878393805</v>
+        <v>190.997797237218</v>
       </c>
       <c r="S11">
-        <v>0.01479023239160748</v>
+        <v>0.0089254766532182</v>
       </c>
       <c r="T11">
-        <v>0.01479023239160748</v>
+        <v>0.0089254766532182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.762991666666666</v>
+        <v>10.015157</v>
       </c>
       <c r="H12">
-        <v>29.288975</v>
+        <v>30.045471</v>
       </c>
       <c r="I12">
-        <v>0.06921353095555305</v>
+        <v>0.0763695392520887</v>
       </c>
       <c r="J12">
-        <v>0.06921353095555305</v>
+        <v>0.07636953925208868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N12">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O12">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P12">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q12">
-        <v>19.84676920485556</v>
+        <v>19.284635485565</v>
       </c>
       <c r="R12">
-        <v>178.6209228437</v>
+        <v>173.561719370085</v>
       </c>
       <c r="S12">
-        <v>0.01418906608112724</v>
+        <v>0.008110675078656036</v>
       </c>
       <c r="T12">
-        <v>0.01418906608112724</v>
+        <v>0.008110675078656036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.762991666666666</v>
+        <v>10.015157</v>
       </c>
       <c r="H13">
-        <v>29.288975</v>
+        <v>30.045471</v>
       </c>
       <c r="I13">
-        <v>0.06921353095555305</v>
+        <v>0.0763695392520887</v>
       </c>
       <c r="J13">
-        <v>0.06921353095555305</v>
+        <v>0.07636953925208868</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N13">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O13">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P13">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q13">
-        <v>3.767492923538889</v>
+        <v>2.984503432457334</v>
       </c>
       <c r="R13">
-        <v>33.90743631185</v>
+        <v>26.860530892116</v>
       </c>
       <c r="S13">
-        <v>0.002693496634162203</v>
+        <v>0.001255213645594396</v>
       </c>
       <c r="T13">
-        <v>0.002693496634162205</v>
+        <v>0.001255213645594395</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.57700433333333</v>
+        <v>18.21851333333333</v>
       </c>
       <c r="H14">
-        <v>76.73101299999999</v>
+        <v>54.65554</v>
       </c>
       <c r="I14">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="J14">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N14">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O14">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P14">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q14">
-        <v>137.5642382502155</v>
+        <v>251.2016897460334</v>
       </c>
       <c r="R14">
-        <v>1238.078144251939</v>
+        <v>2260.8152077143</v>
       </c>
       <c r="S14">
-        <v>0.0983489074108192</v>
+        <v>0.1056496653133263</v>
       </c>
       <c r="T14">
-        <v>0.09834890741081923</v>
+        <v>0.1056496653133263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.57700433333333</v>
+        <v>18.21851333333333</v>
       </c>
       <c r="H15">
-        <v>76.73101299999999</v>
+        <v>54.65554</v>
       </c>
       <c r="I15">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="J15">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.356958</v>
       </c>
       <c r="O15">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P15">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q15">
-        <v>54.19731410427266</v>
+        <v>38.60477469414667</v>
       </c>
       <c r="R15">
-        <v>487.7758269384539</v>
+        <v>347.44297224732</v>
       </c>
       <c r="S15">
-        <v>0.03874732775433262</v>
+        <v>0.01623628220835791</v>
       </c>
       <c r="T15">
-        <v>0.03874732775433263</v>
+        <v>0.01623628220835791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.57700433333333</v>
+        <v>18.21851333333333</v>
       </c>
       <c r="H16">
-        <v>76.73101299999999</v>
+        <v>54.65554</v>
       </c>
       <c r="I16">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="J16">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N16">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O16">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P16">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q16">
-        <v>51.99440082371512</v>
+        <v>35.08056725643333</v>
       </c>
       <c r="R16">
-        <v>467.949607413436</v>
+        <v>315.7251053079</v>
       </c>
       <c r="S16">
-        <v>0.03717239725626564</v>
+        <v>0.0147540814450367</v>
       </c>
       <c r="T16">
-        <v>0.03717239725626564</v>
+        <v>0.0147540814450367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.57700433333333</v>
+        <v>18.21851333333333</v>
       </c>
       <c r="H17">
-        <v>76.73101299999999</v>
+        <v>54.65554</v>
       </c>
       <c r="I17">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="J17">
-        <v>0.1813250324917974</v>
+        <v>0.138923380744276</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N17">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O17">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P17">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q17">
-        <v>9.870046612879776</v>
+        <v>5.429092681982223</v>
       </c>
       <c r="R17">
-        <v>88.83041951591798</v>
+        <v>48.86183413784</v>
       </c>
       <c r="S17">
-        <v>0.007056400070379938</v>
+        <v>0.002283351777555104</v>
       </c>
       <c r="T17">
-        <v>0.007056400070379941</v>
+        <v>0.002283351777555104</v>
       </c>
     </row>
   </sheetData>
